--- a/data/sample_list.xlsx
+++ b/data/sample_list.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Library/Application Support/Box/Box Edit/Documents/62999793034/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/t7-attenuation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="460" windowWidth="33600" windowHeight="21000" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="460" windowWidth="33600" windowHeight="21000" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="507">
   <si>
     <t>Sample</t>
   </si>
@@ -1545,13 +1545,16 @@
   </si>
   <si>
     <t>PA181_T7Hi_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2043,30 +2046,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
       <selection activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2174,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>126</v>
       </c>
@@ -3755,7 +3758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -3930,7 +3933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>138</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>144</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>152</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>154</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>163</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>171</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>175</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>177</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>181</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>193</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>198</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>200</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>208</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>210</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>212</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>214</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>216</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>222</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>224</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>226</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>230</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>238</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>242</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>244</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>246</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>248</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>255</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>257</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>259</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>263</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>265</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>269</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>273</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>275</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>277</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>280</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>282</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>284</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>286</v>
       </c>
@@ -6255,7 +6258,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>292</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>296</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>298</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>300</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>302</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>304</v>
       </c>
@@ -6519,7 +6522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>306</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>308</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>310</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>312</v>
       </c>
@@ -6635,7 +6638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>314</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>316</v>
       </c>
@@ -6693,7 +6696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>318</v>
       </c>
@@ -6725,7 +6728,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>320</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>322</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>324</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>326</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>328</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>330</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>332</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>334</v>
       </c>
@@ -6966,7 +6969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>336</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>338</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>340</v>
       </c>
@@ -7059,7 +7062,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>342</v>
       </c>
@@ -7085,7 +7088,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>347</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>350</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>355</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>360</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>362</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>364</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>366</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>369</v>
       </c>
@@ -7335,7 +7338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>372</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>374</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>377</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>380</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>383</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>389</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>394</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>396</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>398</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>400</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>402</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>404</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>406</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>408</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>410</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>412</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>414</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>416</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>418</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>420</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>422</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>424</v>
       </c>
@@ -8175,7 +8178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>426</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>428</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>430</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>432</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>434</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>436</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>438</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>440</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>442</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>444</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>446</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>448</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>450</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>452</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>454</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>456</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>458</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>460</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>462</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>464</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>466</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>468</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>470</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>472</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>474</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>476</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>478</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>480</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>482</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>484</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>486</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>488</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>492</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>489</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>25</v>
@@ -9321,7 +9324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>494</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>489</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>61</v>
+        <v>506</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>25</v>
@@ -9350,7 +9353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>496</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>500</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>497</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>25</v>
@@ -9411,7 +9414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>502</v>
       </c>
@@ -9422,7 +9425,7 @@
         <v>497</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>61</v>
+        <v>506</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>25</v>
@@ -9440,7 +9443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>504</v>
       </c>
